--- a/biology/Botanique/Ismene_longipetala/Ismene_longipetala.xlsx
+++ b/biology/Botanique/Ismene_longipetala/Ismene_longipetala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ismene longipetala  est une espèce de plantes à fleurs de la famille des Amaryllidaceae. C'est une plante bulbeuse géophyte originaire de la province de Loja en Équateur , ainsi que du nord-ouest du Pérou [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ismene longipetala  est une espèce de plantes à fleurs de la famille des Amaryllidaceae. C'est une plante bulbeuse géophyte originaire de la province de Loja en Équateur , ainsi que du nord-ouest du Pérou .
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ismene longipetala a été décrite par John Lindley   et  Alan W. Meerow  , et publié dans Flore of l'Équateur 41(202): 26, en 1990[2],[3] .
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ismene longipetala a été décrite par John Lindley   et  Alan W. Meerow  , et publié dans Flore of l'Équateur 41(202): 26, en 1990, .
 Synonymie
 Elisena longipetala       Lindl., Edwards's Bot. Reg. 24(Misc.): 45. 1838.
 Hymenocallis longipetala (Lindl.) J.F.Macbr., Publ. Field Mus. Nat. Hist., Bot. Ser. 11: 11. 1931.
-Hymenocallis velardei   Traub, Pl. Life 19: 49. 1963 [4].</t>
+Hymenocallis velardei   Traub, Pl. Life 19: 49. 1963 .</t>
         </is>
       </c>
     </row>
